--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/plate_1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-13.9310418552677</v>
+        <v>-13.93104185529362</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.81660354017165</v>
+        <v>22.8166035401845</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.33787680947344</v>
+        <v>29.33787680941648</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.128533812876775</v>
+        <v>3.12853381286029</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.02396902140313</v>
+        <v>12.02396902138823</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.79038435582165</v>
+        <v>18.79038435579607</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.60670491963176</v>
+        <v>14.60670491968269</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.05759376181188</v>
+        <v>17.05759376181233</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.71221785584614</v>
+        <v>21.71221785595869</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.30724626110318</v>
+        <v>25.30724626106635</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.79128239575382</v>
+        <v>31.79128239576837</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.15557497891282</v>
+        <v>35.15557497892737</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.1381328507879</v>
+        <v>11.13813285077597</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.5441943115102</v>
+        <v>26.54419431150634</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.98949275929706</v>
+        <v>32.98949275929331</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-10.48906980900174</v>
+        <v>-10.48906980905085</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.2629890963864</v>
+        <v>26.26298909636844</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.78590762182468</v>
+        <v>32.78590762191745</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.568423022032469</v>
+        <v>6.56842302204668</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.46716564230214</v>
+        <v>15.46716564225826</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.23490481269234</v>
+        <v>22.23490481269257</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.04991182540086</v>
+        <v>18.04991182540177</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.50327195820935</v>
+        <v>20.50327195819116</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-7.542873081433164</v>
+        <v>-7.542873081417248</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.20528430889399</v>
+        <v>29.2052843088501</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.72654536417362</v>
+        <v>35.72654536424707</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.517553794107947</v>
+        <v>9.51755379402416</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.41328428049862</v>
+        <v>18.41328428048009</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.17967593029916</v>
+        <v>25.17967593024368</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.99601575416161</v>
+        <v>20.99601575420709</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.44712959468054</v>
+        <v>23.44712959463597</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.101728953013</v>
+        <v>28.10172895296889</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.69697629310556</v>
+        <v>31.69697629302518</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.18111782286294</v>
+        <v>38.18111782284827</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.5454182451472</v>
+        <v>41.54541824515083</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.52753906420539</v>
+        <v>17.52753906422438</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.93396160488228</v>
+        <v>32.93396160479451</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.37923729933336</v>
+        <v>39.37923729920069</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.099755356015272</v>
+        <v>-4.099755355990716</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.65281559528093</v>
+        <v>32.65281559532016</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.17572192117145</v>
+        <v>39.17572192116395</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.95858878557842</v>
+        <v>12.95858878553818</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.85762672502951</v>
+        <v>21.85762672495925</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.62534221759065</v>
+        <v>28.62534221756166</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.44036849467764</v>
+        <v>24.44036849471436</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.89395365870362</v>
+        <v>26.89395365861608</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-4.281096208886176</v>
+        <v>-4.281096208864803</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.4670987419503</v>
+        <v>32.46709874195553</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.98835972525378</v>
+        <v>38.98835972532665</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>12.77966085428741</v>
+        <v>12.77966085423625</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.67548657040677</v>
+        <v>21.67548657039199</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.44186813252465</v>
+        <v>28.44186813253148</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.2581785876753</v>
+        <v>24.25817858769008</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.70938807036671</v>
+        <v>26.70938807030782</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.36398478895469</v>
+        <v>31.3639847889573</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.9592291297404</v>
+        <v>34.95922912967583</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.44338168311472</v>
+        <v>41.44338168316451</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.80768666550104</v>
+        <v>44.80768666549297</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.78971047626398</v>
+        <v>20.7897104762276</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.19622079304283</v>
+        <v>36.19622079309286</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.64149243029239</v>
+        <v>42.64149243028421</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-0.8374525390251861</v>
+        <v>-0.8374525389955139</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.91515597386026</v>
+        <v>35.91515597389198</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.43806222628384</v>
+        <v>42.43806222629134</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.22122184129014</v>
+        <v>16.22122184125399</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.12035501406856</v>
+        <v>25.12035501406151</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.88806041549699</v>
+        <v>31.88806041548289</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.70305732903423</v>
+        <v>27.70305732908334</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.15673813979972</v>
+        <v>30.15673813974288</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-10.86335651351519</v>
+        <v>-10.86335651358841</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.88453800592472</v>
+        <v>25.88453800588845</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.40588447558243</v>
+        <v>32.40588447560403</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.19669858246359</v>
+        <v>6.196698582489056</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.09232408989012</v>
+        <v>15.09232408983146</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.85879698411772</v>
+        <v>21.85879698410317</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.67496628795734</v>
+        <v>17.674966288021</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.12600903764635</v>
+        <v>20.12600903763168</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.78068540468305</v>
+        <v>24.78068540474683</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.37568942723524</v>
+        <v>28.3756894272225</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.85977455341449</v>
+        <v>34.85977455339152</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.22411053568944</v>
+        <v>38.22411053567216</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.2063815370881</v>
+        <v>14.20638153720395</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.61265429986818</v>
+        <v>29.61265429980258</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.05802008241951</v>
+        <v>36.05802008231765</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-7.420790859546038</v>
+        <v>-7.420790859493628</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.33151718946899</v>
+        <v>29.33151718942602</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.85450892855092</v>
+        <v>35.85450892856525</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.637181443838607</v>
+        <v>9.637181443847702</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>18.53611438533382</v>
+        <v>18.5361143854084</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.30391112056306</v>
+        <v>25.30391112053214</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.11876686870041</v>
+        <v>21.11876686876601</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.57228092788821</v>
+        <v>23.57228092778271</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.15887382133339</v>
+        <v>25.15887382132248</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.75428809514906</v>
+        <v>28.75428809519567</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.24003755911897</v>
+        <v>35.24003755914875</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.60508250452917</v>
+        <v>38.60508250455805</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.5833925953149</v>
+        <v>14.58339259531535</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.99307395554265</v>
+        <v>29.99307395553458</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.4397915005982</v>
+        <v>36.43979150061252</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.6721775702691062</v>
+        <v>-0.6721775703123072</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.08008245048827</v>
+        <v>36.08008245054773</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.603533772431</v>
+        <v>42.6035337724219</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.38688643946298</v>
+        <v>16.38688643948787</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.28624833180199</v>
+        <v>25.28624833181961</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.0544416608607</v>
+        <v>32.05444166085331</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.86923820340692</v>
+        <v>27.86923820348479</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.3233079752106</v>
+        <v>30.32330797509203</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.97931265220031</v>
+        <v>34.97931265220964</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.57593082402516</v>
+        <v>38.57593082402504</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.06190884268747</v>
+        <v>45.06190884269292</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.42722693664896</v>
+        <v>48.4272269366377</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.40425633079203</v>
+        <v>24.40425633078248</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.81454481064647</v>
+        <v>39.81454481062999</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.26177259496207</v>
+        <v>46.26177259495469</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.54953079130498</v>
+        <v>31.54953079131942</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.14516399188565</v>
+        <v>35.14516399178026</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.63101886349457</v>
+        <v>41.63101886345023</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>44.99607165259444</v>
+        <v>44.99607165263776</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.97394464441518</v>
+        <v>20.97394464440801</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.38398712883534</v>
+        <v>36.38398712880942</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.83068193018428</v>
+        <v>42.8306819300823</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5.717585504121438</v>
+        <v>5.717585504064139</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.47035756906077</v>
+        <v>42.47035756909022</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>48.99379668499582</v>
+        <v>48.99379668502515</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.777500863102</v>
+        <v>22.77750086313838</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.67715807398704</v>
+        <v>31.67715807400159</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.44532771952552</v>
+        <v>38.44532771953643</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.26014353973212</v>
+        <v>34.26014353981613</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.71443834117112</v>
+        <v>36.7144383412291</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.37041828411977</v>
+        <v>41.37041828407202</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.96725538289015</v>
+        <v>44.96725538286059</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.45333880843852</v>
+        <v>51.45333880845308</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>54.81866474270193</v>
+        <v>54.81866474276003</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.79525703906747</v>
+        <v>30.79525703902291</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.20590664178658</v>
+        <v>46.2059066417286</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>52.65311167621521</v>
+        <v>52.65311167612028</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.81231263045438</v>
+        <v>34.81231263037628</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.40794281043647</v>
+        <v>38.40794281045125</v>
       </c>
     </row>
     <row r="140">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>48.25886605050859</v>
+        <v>48.25886605058101</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.2366420370827</v>
+        <v>24.23664203704575</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.64677230122017</v>
+        <v>39.64677230122074</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>46.09346304240491</v>
+        <v>46.09346304233909</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>8.980095632689334</v>
+        <v>8.980095632698657</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.73290525970597</v>
+        <v>45.73290525977873</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>52.25634429497168</v>
+        <v>52.25634429496429</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.04034123803287</v>
+        <v>26.0403412379675</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.94009368187542</v>
+        <v>34.94009368188269</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.70825323052841</v>
+        <v>41.708253230481</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>37.52303969576669</v>
+        <v>37.52303969572292</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>39.97743014326877</v>
+        <v>39.97743014320317</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.63340743987626</v>
+        <v>44.63340743990604</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.23024151255483</v>
+        <v>48.23024151251766</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>54.71633595795983</v>
+        <v>54.71633595795233</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>58.08166644840005</v>
+        <v>58.08166644838175</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.05816174047848</v>
+        <v>34.05816174051838</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.46889912251779</v>
+        <v>49.46889912254655</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>55.91610009093576</v>
+        <v>55.91610009094259</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.22793506854398</v>
+        <v>28.22793506847497</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.82332492901698</v>
+        <v>31.82332492894889</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.30912338846908</v>
+        <v>38.30912338839587</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.67421173661787</v>
+        <v>41.67421173657728</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.65223494371153</v>
+        <v>17.65223494365639</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.06212762768293</v>
+        <v>33.0621276276943</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.50891251549412</v>
+        <v>39.50891251548287</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2.396504702571654</v>
+        <v>2.396504702566311</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.14901387130603</v>
+        <v>39.14901387133741</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.67253839950958</v>
+        <v>45.67253839952732</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.45604820505414</v>
+        <v>19.4560482050646</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.3556004227793</v>
+        <v>28.35560042275838</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.12385131281589</v>
+        <v>35.12385131282635</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.93849660179628</v>
+        <v>30.93849660181447</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.39272030327302</v>
+        <v>33.392720303233</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.04877725515441</v>
+        <v>38.04877725515771</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.64537101242845</v>
+        <v>41.64537101243118</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.13139802773426</v>
+        <v>48.1313980277496</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.49675952268958</v>
+        <v>51.49675952267548</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.47350202214036</v>
+        <v>27.47350202214115</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.88400183015587</v>
+        <v>42.88400183018862</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.33129695211723</v>
+        <v>49.33129695216498</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-13.88156001432626</v>
+        <v>-13.88156001433092</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.86586458743229</v>
+        <v>22.8658645873958</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.38668876582712</v>
+        <v>29.38668876585441</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.177195177622501</v>
+        <v>3.177195177581687</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.07238428939913</v>
+        <v>12.0723842893665</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.83839921362473</v>
+        <v>18.83839921362053</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.65552907845315</v>
+        <v>14.65552907843018</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.10628416166039</v>
+        <v>17.10628416162833</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.76057382049364</v>
+        <v>21.76057382048318</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.3551960332144</v>
+        <v>25.35519603315893</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.83911816541094</v>
+        <v>31.83911816542334</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.20318617506089</v>
+        <v>35.20318617513444</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.18618067401567</v>
+        <v>11.18618067402647</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.59203133254268</v>
+        <v>26.59203133254882</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.03689755105656</v>
+        <v>33.03689755107612</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-10.43701450030276</v>
+        <v>-10.4370145002524</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.31482376167232</v>
+        <v>26.31482376167573</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.83729303591226</v>
+        <v>32.83729303591272</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.619658013913998</v>
+        <v>6.619658013896377</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.51815460727439</v>
+        <v>15.51815460724915</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.28549326957127</v>
+        <v>22.28549326963607</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.10130974817357</v>
+        <v>18.10130974817312</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.55453617895832</v>
+        <v>20.55453617898254</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-7.493635187819883</v>
+        <v>-7.493635187796805</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.25430140592496</v>
+        <v>29.25430140592132</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.77511336754926</v>
+        <v>35.77511336754073</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.565971195050587</v>
+        <v>9.565971195011478</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>18.4614555803304</v>
+        <v>18.46145558035098</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.22744681925533</v>
+        <v>25.22744681927204</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.04459593658512</v>
+        <v>21.04459593658523</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.49557601516826</v>
+        <v>23.49557601516815</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.14984093750459</v>
+        <v>28.14984093753346</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.74468208148553</v>
+        <v>31.74468208148723</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.22870960697528</v>
+        <v>38.22870960697494</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.59278545556483</v>
+        <v>41.59278545557097</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.57534291154322</v>
+        <v>17.57534291152106</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.98155464527806</v>
+        <v>32.98155464527044</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.42639810899905</v>
+        <v>39.42639810899166</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-4.04794396948089</v>
+        <v>-4.047943969452128</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.7044063356092</v>
+        <v>32.70440633556361</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.22686340718544</v>
+        <v>39.22686340711302</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.00957983809442</v>
+        <v>13.00957983805076</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.90837174582034</v>
+        <v>21.90837174574747</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.67568672952702</v>
+        <v>28.67568672945392</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.49152246533551</v>
+        <v>24.49152246537917</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.94497392394739</v>
+        <v>26.94497392391784</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-4.231976101251441</v>
+        <v>-4.23197610123075</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.51599805195487</v>
+        <v>32.51599805196965</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>39.03680994139145</v>
+        <v>39.03680994141373</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.82796046668457</v>
+        <v>12.82796046658611</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.72354008037521</v>
+        <v>21.72354008036304</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.4895212314972</v>
+        <v>28.48952123147401</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.30664097370131</v>
+        <v>24.30664097369768</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.75771669382438</v>
+        <v>26.7577166938195</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.4119789769758</v>
+        <v>31.41197897694214</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.00681712508312</v>
+        <v>35.00681712503788</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.49085567359409</v>
+        <v>41.4908556736008</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>44.85493608270715</v>
+        <v>44.85493608273375</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.83739653339071</v>
+        <v>20.83739653340117</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.24369604202095</v>
+        <v>36.24369604198457</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.68853544866104</v>
+        <v>42.68853544858577</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-0.7857589443785642</v>
+        <v>-0.7857589443352495</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.9666289212154</v>
+        <v>35.96662892120846</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.48908591910881</v>
+        <v>42.48908591906572</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.27209509894831</v>
+        <v>16.27209509894467</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.17098223910354</v>
+        <v>25.17098223910514</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.93828713142445</v>
+        <v>31.93828713141638</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.75409349823249</v>
+        <v>27.75409349825841</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.20764060300839</v>
+        <v>30.20764060303727</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-10.81406369328145</v>
+        <v>-10.81406369324268</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.93361002804308</v>
+        <v>25.93361002805354</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.45450740469519</v>
+        <v>32.45450740470803</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>6.2451709179443</v>
+        <v>6.245170917934182</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.14055032451508</v>
+        <v>15.14055032450747</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.90662280647134</v>
+        <v>21.9066228064926</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.72360140816479</v>
+        <v>17.7236014081981</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.17451039559173</v>
+        <v>20.17451039560913</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.82885232623473</v>
+        <v>24.82885232626258</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.42345016318986</v>
+        <v>28.42345016317258</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.90742128462627</v>
+        <v>34.90742128473871</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.27153269240855</v>
+        <v>38.27153269255407</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.25424032836977</v>
+        <v>14.25424032838591</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.66030228391494</v>
+        <v>29.66030228397667</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.10523583521344</v>
+        <v>36.10523583526062</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-7.36892456999076</v>
+        <v>-7.368924569953698</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.38316283164763</v>
+        <v>29.38316283160056</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.90570531724804</v>
+        <v>35.90570531713185</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.688227407295379</v>
+        <v>9.688227407321072</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.58691431806349</v>
+        <v>18.58691431797924</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.35431054259109</v>
+        <v>25.35431054257983</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.16997575411178</v>
+        <v>21.16997575412656</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.62335610759376</v>
+        <v>23.62335610758978</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.20980352444612</v>
+        <v>25.20980352448796</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.80481161014486</v>
+        <v>28.8048116101236</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.29044709366237</v>
+        <v>35.29044709382222</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.65526740783482</v>
+        <v>38.65526740790667</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>14.63401409933433</v>
+        <v>14.63401409938628</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.04348475418035</v>
+        <v>30.04348475422571</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.48976994777686</v>
+        <v>36.48976994783813</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-0.6185727547579987</v>
+        <v>-0.6185727548158653</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.13346670549802</v>
+        <v>36.13346670538137</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.65646876960627</v>
+        <v>42.65646876962457</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.43967084616988</v>
+        <v>16.43967084622468</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.33878678510032</v>
+        <v>25.3387867851874</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.10657962006646</v>
+        <v>32.1065796201058</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.92218566414717</v>
+        <v>27.92218566413398</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.37612179769771</v>
+        <v>30.37612179769351</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.03179197174804</v>
+        <v>35.03179197177499</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.62800386480128</v>
+        <v>38.6280038647109</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.11386792742567</v>
+        <v>45.11386792748274</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.47896140676894</v>
+        <v>48.47896140685614</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.45642731886621</v>
+        <v>24.4564273189608</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.86650517343642</v>
+        <v>39.86650517345824</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.31330061660312</v>
+        <v>46.31330061662108</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.60021653840933</v>
+        <v>31.60021653844174</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.19544354711993</v>
+        <v>35.19544354710867</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.6811844371339</v>
+        <v>41.68118443718722</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>45.04601259482515</v>
+        <v>45.04601259492485</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.02432219672894</v>
+        <v>21.02432219667198</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.43415397169158</v>
+        <v>36.43415397158244</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.88041642014277</v>
+        <v>42.88041642006035</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5.770946406156348</v>
+        <v>5.770946406146912</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.52349790798487</v>
+        <v>42.52349790796929</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.04648776336685</v>
+        <v>49.0464877633307</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.83004134017519</v>
+        <v>22.83004134016723</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.72945259242444</v>
+        <v>31.72945259242353</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.49722174281353</v>
+        <v>38.49722174283058</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.31284705776343</v>
+        <v>34.31284705775524</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.76700821769318</v>
+        <v>36.76700821772479</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.42265365706194</v>
+        <v>41.42265365705784</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>45.01908447309645</v>
+        <v>45.01908447309315</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>51.5050539413942</v>
+        <v>51.50505394147753</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>54.87015526081554</v>
+        <v>54.8701552608667</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.84718408460858</v>
+        <v>30.84718408469225</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.25762305797902</v>
+        <v>46.25762305796822</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>52.70439574997672</v>
+        <v>52.70439574997308</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.86288057571382</v>
+        <v>34.86288057574293</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.45810456679774</v>
+        <v>38.45810456678307</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.94385647728213</v>
+        <v>44.94385647725951</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>48.30868919397121</v>
+        <v>48.30868919389049</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.28690179310879</v>
+        <v>24.28690179311561</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.69682134640791</v>
+        <v>39.69682134641337</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.14307973487248</v>
+        <v>46.14307973486884</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>9.033338745517675</v>
+        <v>9.033338745641139</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>45.78592780817703</v>
+        <v>45.7859278081751</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>52.30891758265548</v>
+        <v>52.30891758267071</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.09276392229085</v>
+        <v>26.09276392223332</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.99227040693008</v>
+        <v>34.99227040690598</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.76002946077656</v>
+        <v>41.76002946075064</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.57562541485404</v>
+        <v>37.57562541482505</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>40.02988222037745</v>
+        <v>40.02988222037688</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>44.68552501338743</v>
+        <v>44.68552501335719</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.2819528067512</v>
+        <v>48.28195280668572</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.76793329487455</v>
+        <v>54.76793329490092</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.1330391706065</v>
+        <v>58.13303917065812</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.10997099243914</v>
+        <v>34.10997099263547</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49.52049774399907</v>
+        <v>49.52049774409729</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>55.96726636979488</v>
+        <v>55.96726636989685</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.27867572978416</v>
+        <v>28.27867572979155</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.87365940841018</v>
+        <v>31.87365940843906</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.35934388548721</v>
+        <v>38.35934388543969</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.72420760139337</v>
+        <v>41.72420760139018</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.70266741592925</v>
+        <v>17.70266741603111</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.11234939030819</v>
+        <v>33.11234939028636</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.55870192499096</v>
+        <v>39.55870192497994</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.449920513419919</v>
+        <v>2.449920513594428</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>39.20220911742856</v>
+        <v>39.20220911749302</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.72528438577003</v>
+        <v>45.7252843858105</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.50864359828883</v>
+        <v>19.50864359829247</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.40794985856351</v>
+        <v>28.40794985857612</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.17580025206237</v>
+        <v>35.17580025204179</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.99125504026565</v>
+        <v>30.991255040281</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.44534510052622</v>
+        <v>33.44534510044561</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.10106754824326</v>
+        <v>38.10106754822507</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.69725503238489</v>
+        <v>41.69725503243196</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.18316809022897</v>
+        <v>48.18316809025421</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>51.54830496949582</v>
+        <v>51.5483049695106</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.52548399369484</v>
+        <v>27.5254839938598</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.93577317197084</v>
+        <v>42.93577317209317</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>49.3826359512283</v>
+        <v>49.382635951323</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-12.48766885506448</v>
+        <v>-12.48766885506209</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.25998736127635</v>
+        <v>24.25998736121246</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.78076232532148</v>
+        <v>30.78076232541573</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.571222283303904</v>
+        <v>4.571222283318797</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.46651839547089</v>
+        <v>13.46651839548601</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.2325043220085</v>
+        <v>20.23250432204068</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.04965821336057</v>
+        <v>16.04965821329474</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>18.50048924794239</v>
+        <v>18.5004892479159</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.15474525592528</v>
+        <v>23.15474525592608</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.74943669360541</v>
+        <v>26.7494366935671</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.23340475933698</v>
+        <v>33.23340475939008</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.59745799959833</v>
+        <v>36.59745799955092</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.58026875243038</v>
+        <v>12.5802687523882</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.98626196230909</v>
+        <v>27.98626196228351</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.43108704695955</v>
+        <v>34.43108704694648</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-9.041904329442879</v>
+        <v>-9.041904329371029</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.71016559409977</v>
+        <v>27.71016559409943</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.23258565274639</v>
+        <v>34.23258565280539</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.014904206583104</v>
+        <v>8.014904206648247</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.91350783305781</v>
+        <v>16.91350783306634</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.68081749847672</v>
+        <v>23.68081749846115</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>19.49665801321159</v>
+        <v>19.4966580132374</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.94996042313144</v>
+        <v>21.94996042316838</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-6.099706414421441</v>
+        <v>-6.099706414412914</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.6484617976346</v>
+        <v>30.64846179765018</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.16922454395037</v>
+        <v>37.16922454389216</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.96003591994431</v>
+        <v>10.96003591993306</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.85562730758024</v>
+        <v>19.8556273075865</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.62158954807128</v>
+        <v>26.62158954807446</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.43876269141403</v>
+        <v>22.43876269137561</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.88981872363231</v>
+        <v>24.88981872369279</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.54404999460601</v>
+        <v>29.54404999460237</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.13896036295446</v>
+        <v>33.13896036298458</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.62303382332677</v>
+        <v>39.62303382337418</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.98709490216142</v>
+        <v>42.98709490217575</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>18.96946860904509</v>
+        <v>18.96946860903076</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.37582289697766</v>
+        <v>34.37582289696868</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.82062522640174</v>
+        <v>40.82062522640879</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-2.65279617245583</v>
+        <v>-2.652796172396826</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.09978579767678</v>
+        <v>34.09978579760561</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.62219365311412</v>
+        <v>40.62219365308854</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>14.40486366177483</v>
+        <v>14.40486366172288</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.30376260492326</v>
+        <v>23.30376260482765</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.07104859130677</v>
+        <v>30.07104859123708</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.88690836217224</v>
+        <v>25.88690836217247</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.34043580198161</v>
+        <v>28.34043580198888</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2.838034198506172</v>
+        <v>-2.838034198522884</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.91017157330614</v>
+        <v>33.91017157330466</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>40.43093424766939</v>
+        <v>40.43093424768406</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.22203832270068</v>
+        <v>14.22203832267316</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.1177249391724</v>
+        <v>23.1177249392281</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.88367709200852</v>
+        <v>29.88367709197714</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.70082085982065</v>
+        <v>25.7008208597962</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.15197253394299</v>
+        <v>28.15197253391093</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.80620116584932</v>
+        <v>32.80620116582477</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.4011085379175</v>
+        <v>36.40110853794331</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.88519302156239</v>
+        <v>42.88519302156615</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.24925866089077</v>
+        <v>46.24925866089861</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.23153536188865</v>
+        <v>22.23153536189945</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.63797742536033</v>
+        <v>37.63797742535669</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>44.08277569774148</v>
+        <v>44.08277569773011</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.6094019810264157</v>
+        <v>0.6094019810701852</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.36202151210048</v>
+        <v>37.36202151213833</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.88442929409361</v>
+        <v>43.88442929410578</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.66739205302522</v>
+        <v>17.66739205301067</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.56638622854975</v>
+        <v>26.56638622850371</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.33366212395119</v>
+        <v>33.33366212393437</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.1494925253568</v>
+        <v>29.14949252538988</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.60311561152312</v>
+        <v>31.60311561152687</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-9.420147906025001</v>
+        <v>-9.420147905934165</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.32775743216646</v>
+        <v>27.32775743218135</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.8486055943355</v>
+        <v>33.84860559435017</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.639222655165575</v>
+        <v>7.639222655185584</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.53470906338227</v>
+        <v>16.53470906337807</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.30075254734017</v>
+        <v>23.30075254734722</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.11775517498645</v>
+        <v>19.11775517502715</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.56874011484447</v>
+        <v>21.56874011487584</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.22304839456162</v>
+        <v>26.22304839457436</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.81771545557537</v>
+        <v>29.81771545562619</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.30173251122041</v>
+        <v>36.30173251128237</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.66582914958362</v>
+        <v>39.66582914966752</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.64835303751479</v>
+        <v>15.64835303751411</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.05455754611321</v>
+        <v>31.05455754613595</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.49944996352681</v>
+        <v>37.49944996353954</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-5.973789765557036</v>
+        <v>-5.973789765464495</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.77852929944017</v>
+        <v>30.778529299457</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.30102256972796</v>
+        <v>37.3010225696918</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.08349823652522</v>
+        <v>11.08349823651874</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.98229218134522</v>
+        <v>19.98229218131578</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.74965940940242</v>
+        <v>26.74965940938844</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.56534865675578</v>
+        <v>22.56534865678704</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.01880499027529</v>
+        <v>25.01880499030542</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.60519411858072</v>
+        <v>26.60519411861403</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.20027139839808</v>
+        <v>30.20027139845003</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.68595282966171</v>
+        <v>36.68595282979222</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.05075837187987</v>
+        <v>40.05075837195468</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.02932127215197</v>
+        <v>16.0293212721506</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.43893451663714</v>
+        <v>31.43893451665897</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.88517857697118</v>
+        <v>37.88517857699153</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.7764429746446453</v>
+        <v>0.7764429746354367</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.5287140960859</v>
+        <v>37.52871409610193</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.05166694832294</v>
+        <v>44.0516669483259</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.83482259570862</v>
+        <v>17.83482259573727</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.73404556810262</v>
+        <v>26.73404556808762</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.50180941150179</v>
+        <v>33.5018094114869</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.31743948160081</v>
+        <v>29.3174394816232</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.77145159558713</v>
+        <v>31.77145159552187</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.4270881243523</v>
+        <v>36.42708812433059</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>40.02336920814164</v>
+        <v>40.02336920818541</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.50927922004907</v>
+        <v>46.50927922013616</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.87435792878616</v>
+        <v>49.8743579288222</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.85164004537514</v>
+        <v>25.85164004544165</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.26186049047057</v>
+        <v>41.2618604904417</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.70861480523924</v>
+        <v>47.70861480530052</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.99564476591106</v>
+        <v>32.9956447659039</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.59094096907281</v>
+        <v>36.59094096906917</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.07672780765224</v>
+        <v>43.07672780763087</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.44154119327529</v>
+        <v>46.44154119333179</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.41966700092919</v>
+        <v>22.41966700093294</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>37.82964136849139</v>
+        <v>37.82964136849503</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.27586268270263</v>
+        <v>44.27586268270252</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>7.165999763089438</v>
+        <v>7.165999762940508</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.91878292928734</v>
+        <v>43.91878292919662</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.44172357199934</v>
+        <v>50.44172357193761</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.22523072227559</v>
+        <v>24.22523072226831</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.12474901007615</v>
+        <v>33.12474901006831</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.89248916845761</v>
+        <v>39.89248916844249</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.7081385082661</v>
+        <v>35.70813850830054</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.16237565100689</v>
+        <v>38.16237565098904</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.81798744460766</v>
+        <v>42.81798744459038</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.41448745149173</v>
+        <v>46.41448745150276</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>52.90050286994167</v>
+        <v>52.9005028698763</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>56.26558941837427</v>
+        <v>56.26558941840542</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.24243444416438</v>
+        <v>32.24243444419371</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.65301601050819</v>
+        <v>47.65301601052251</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>54.09974757355146</v>
+        <v>54.09974757360944</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.25832193376711</v>
+        <v>36.25832193377064</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>39.85361511931514</v>
+        <v>39.85361511928956</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.3394129780494</v>
+        <v>46.33941297809329</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>49.70423092284684</v>
+        <v>49.70423092285071</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.68225972719315</v>
+        <v>25.68225972720054</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.09232187337945</v>
+        <v>41.09232187342402</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>47.5385391279357</v>
+        <v>47.53853912793661</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.42840523153077</v>
+        <v>10.42840523149837</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>47.18122595946979</v>
+        <v>47.18122595939953</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>53.70416652145993</v>
+        <v>53.70416652142503</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.48796643565313</v>
+        <v>27.48796643560208</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.38757995590858</v>
+        <v>36.38757995586732</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.1553100178377</v>
+        <v>43.15531001783167</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.97092999623705</v>
+        <v>38.97092999625365</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.42526278465018</v>
+        <v>41.42526278467974</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>46.08087193189365</v>
+        <v>46.08087193187898</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>49.67736891572829</v>
+        <v>49.67736891569509</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>56.16339535404793</v>
+        <v>56.16339535401996</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>59.52848645895747</v>
+        <v>59.52848645895804</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.50523448218942</v>
+        <v>35.50523448222614</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>50.91590382727045</v>
+        <v>50.91590382729228</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>57.36263132436672</v>
+        <v>57.36263132436684</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.67409096231122</v>
+        <v>29.67409096231224</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.26914383469161</v>
+        <v>33.26914383471298</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.75487426008512</v>
+        <v>39.75487426008603</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.11972320414431</v>
+        <v>43.11972320414488</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.09799922567813</v>
+        <v>19.09799922572952</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.50782379081718</v>
+        <v>34.50782379078102</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.95413519201158</v>
+        <v>40.9541351920059</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>3.844960877072957</v>
+        <v>3.844960877041238</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.59748114376216</v>
+        <v>40.59748114377773</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.12050720015272</v>
+        <v>47.12050720013647</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.90381998524722</v>
+        <v>20.90381998524676</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.80323327993872</v>
+        <v>29.80323327994497</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.57105468207887</v>
+        <v>36.57105468205682</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.38653349577898</v>
+        <v>32.38653349578092</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.84069953733731</v>
+        <v>34.84069953733469</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.49638833984911</v>
+        <v>39.49638833986469</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.09264501373448</v>
+        <v>43.09264501390103</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.57860402148119</v>
+        <v>49.57860402157248</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.94372613017472</v>
+        <v>52.94372613020825</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.92072135732123</v>
+        <v>28.92072135730714</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>44.33115312723421</v>
+        <v>44.33115312724899</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.77797477820061</v>
+        <v>50.77797477817492</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-19.16108110710295</v>
+        <v>-19.16108110708362</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.5859038352876</v>
+        <v>17.58590383524088</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.10703273167874</v>
+        <v>24.10703273167533</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.102093492546921</v>
+        <v>-2.102093492572614</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.792899528346105</v>
+        <v>6.792899528178303</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.55914724227093</v>
+        <v>13.55914724223648</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.375737234931442</v>
+        <v>9.37573723492428</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.82628742469162</v>
+        <v>11.82628742468821</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.48077114022239</v>
+        <v>16.48077114027742</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.07569884022362</v>
+        <v>20.07569884015938</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.55956416193819</v>
+        <v>26.55956416194922</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.9237959411138</v>
+        <v>29.92379594110118</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.90701308959958</v>
+        <v>5.907013089718497</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.312565200941</v>
+        <v>21.31256520095385</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.75769689830715</v>
+        <v>27.75769689830454</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-15.71961616383678</v>
+        <v>-15.71961616384656</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.03178222637987</v>
+        <v>21.03178222639362</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.55455633122212</v>
+        <v>27.55455633115709</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.337288635095113</v>
+        <v>1.337288635102503</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.23558900292576</v>
+        <v>10.23558900278933</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.00316051892721</v>
+        <v>17.00316051891209</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>12.81843700283516</v>
+        <v>12.81843700280594</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.27145842905056</v>
+        <v>15.27145842902237</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-12.77304898215821</v>
+        <v>-12.77304898217583</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.97444794814648</v>
+        <v>23.97444794810703</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.4955646294384</v>
+        <v>30.49556462938406</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.286789828215113</v>
+        <v>4.286789828213749</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.18207812033804</v>
+        <v>13.18207812036987</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.94830214854462</v>
+        <v>19.94830214854121</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.76491140212502</v>
+        <v>15.76491140208829</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.21568658498997</v>
+        <v>18.21568658492438</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.87014556373961</v>
+        <v>22.87014556367378</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.46529219917706</v>
+        <v>26.46529219914341</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.94926291385334</v>
+        <v>32.94926291382071</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.31350253193104</v>
+        <v>36.31350253190217</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.29628263658415</v>
+        <v>12.29628263659415</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.70219582058589</v>
+        <v>27.7021958205245</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.14730476319905</v>
+        <v>34.14730476320735</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-9.330438382690751</v>
+        <v>-9.330438382708373</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.42147204665607</v>
+        <v>27.42147204664675</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.94423395056483</v>
+        <v>33.94423395061167</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.727317715073376</v>
+        <v>7.727317715022899</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.62591339544965</v>
+        <v>16.62591339542782</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.3934612328077</v>
+        <v>23.39346123277883</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.66200343320636</v>
+        <v>21.66200343322193</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-9.511299664782861</v>
+        <v>-9.511299664866421</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.23623482619055</v>
+        <v>27.23623482611961</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.75735143525528</v>
+        <v>33.75735143522027</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.548869329986381</v>
+        <v>7.54886933000855</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.4442528513646</v>
+        <v>16.44425285138461</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.21046679186704</v>
+        <v>23.21046679188523</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.02704667644448</v>
+        <v>19.02704667645528</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.47791750117837</v>
+        <v>21.4779175011528</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.13237384057791</v>
+        <v>26.13237384056722</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.72751747775501</v>
+        <v>29.72751747770317</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.21149921628321</v>
+        <v>36.2114992162906</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.57574339436373</v>
+        <v>39.57574339440796</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.55842649129968</v>
+        <v>15.55842649124192</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.96442745143158</v>
+        <v>30.96442745137349</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.40953233664961</v>
+        <v>37.40953233666792</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-6.068163126539709</v>
+        <v>-6.068163126568244</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.68378486453664</v>
+        <v>30.68378486457404</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>37.20654669499995</v>
+        <v>37.20654669504463</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.98992320610127</v>
+        <v>10.98992320613788</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.88861411983398</v>
+        <v>19.88861411979021</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.65615186554512</v>
+        <v>26.65615186547213</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.47141825169503</v>
+        <v>22.47141825177143</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.92476034997437</v>
+        <v>24.9247603499854</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-16.09343338413769</v>
+        <v>-16.09343338414417</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.65380067999379</v>
+        <v>20.65380067995854</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.17500277475258</v>
+        <v>27.17500277465765</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>0.96603365308615</v>
+        <v>0.9660336530943354</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.861216969351766</v>
+        <v>9.861216969319024</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.62752224129533</v>
+        <v>16.62752224126293</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>12.44396097740016</v>
+        <v>12.44396097738765</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>14.89466507188572</v>
+        <v>14.89466507188617</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.54920105902138</v>
+        <v>19.54920105903297</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.14410437745018</v>
+        <v>23.14410437741812</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.62801869020986</v>
+        <v>29.6280186902359</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.99229386771437</v>
+        <v>32.99229386774336</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.975224149887048</v>
+        <v>8.975224149885001</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.38098756015258</v>
+        <v>24.38098756014463</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.82618659001505</v>
+        <v>30.82618658998583</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-12.65137484051477</v>
+        <v>-12.65137484053785</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.10027269081129</v>
+        <v>24.10027269081163</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.62312000731051</v>
+        <v>30.62312000731233</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.406009424731813</v>
+        <v>4.406009424763873</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>13.3045001110976</v>
+        <v>13.30450011112534</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.07212919008352</v>
+        <v>20.07212919011126</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.88725441229351</v>
+        <v>15.88725441229476</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.34042976258129</v>
+        <v>18.34042976255218</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.92691988501499</v>
+        <v>19.92691988501692</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.52223349158057</v>
+        <v>23.52223349157648</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.00781211574249</v>
+        <v>30.00781211574579</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.37279624116356</v>
+        <v>33.37279624112548</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>9.351765689452712</v>
+        <v>9.351765689459647</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.76093763443466</v>
+        <v>24.76093763446013</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.20748838902059</v>
+        <v>31.20748838899183</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-5.901839834323916</v>
+        <v>-5.901839834346198</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.84975969839197</v>
+        <v>30.84975969838117</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.37306660036372</v>
+        <v>37.37306660039658</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.15663614248708</v>
+        <v>11.15663614237067</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.05555580994487</v>
+        <v>20.05555580987643</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.82358147926654</v>
+        <v>26.82358147930702</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.63864751740086</v>
+        <v>22.63864751738358</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.09237860397925</v>
+        <v>25.09237860396833</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.7482428685777</v>
+        <v>29.74824286858873</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.34476032963473</v>
+        <v>33.34476032956322</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.83056751949325</v>
+        <v>39.83056751945403</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.19582479407304</v>
+        <v>43.19582479402882</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.17351350835477</v>
+        <v>19.17351350835784</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.58329260095902</v>
+        <v>34.58329260096061</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.03035359070238</v>
+        <v>41.03035359066612</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.31744015794154</v>
+        <v>26.3174401579146</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.91297269170766</v>
+        <v>29.9129726916889</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.39865672152794</v>
+        <v>36.39865672148428</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.76364869042768</v>
+        <v>39.76364869035515</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.74218104901231</v>
+        <v>15.74218104899764</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.15171411102997</v>
+        <v>31.15171411102633</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.59824212076401</v>
+        <v>37.59824212077151</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>0.487786568931277</v>
+        <v>0.4877865689564018</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.23989813852054</v>
+        <v>37.23989813860819</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.76319283330681</v>
+        <v>43.76319283342789</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>17.54711388290209</v>
+        <v>17.54711388293119</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.44632886240813</v>
+        <v>26.44632886239665</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.21433084678349</v>
+        <v>33.21433084682294</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.02941616348996</v>
+        <v>29.029416163462</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.48337227492382</v>
+        <v>31.48337227490915</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.13921180413174</v>
+        <v>36.13921180414629</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.73594819309064</v>
+        <v>39.73594819306086</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>46.22186078777829</v>
+        <v>46.22186078774055</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.58712590223731</v>
+        <v>49.58712590223629</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.56437752755962</v>
+        <v>25.56437752753734</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.9745177358616</v>
+        <v>40.97451773584091</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.42155597468913</v>
+        <v>47.42155597466128</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.58019443238802</v>
+        <v>29.58019443241746</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.17572394634512</v>
+        <v>33.17572394636695</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.66141899684762</v>
+        <v>39.66141899682261</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.0264155245027</v>
+        <v>43.02641552455022</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>19.00485087832228</v>
+        <v>19.00485087830773</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.41447172036364</v>
+        <v>34.41447172036353</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.86099566946361</v>
+        <v>40.86099566948214</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3.750269131466119</v>
+        <v>3.750269131566618</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.50241826384481</v>
+        <v>40.50241826384549</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.0257128776283</v>
+        <v>47.02571287767935</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>20.80992668862361</v>
+        <v>20.80992668864931</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.70923690081226</v>
+        <v>29.70923690077327</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.47722878868549</v>
+        <v>36.4772287886615</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.29228475051072</v>
+        <v>32.29228475043978</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.74633650776152</v>
+        <v>34.74633650768831</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.40217339026801</v>
+        <v>39.40217339030848</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.9989067539042</v>
+        <v>42.9989067538826</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.48483036880364</v>
+        <v>49.48483036883615</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>52.85010003915956</v>
+        <v>52.85010003919594</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.82725466059164</v>
+        <v>28.82725466057357</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.23748264832115</v>
+        <v>44.23748264825579</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>50.68451682096033</v>
+        <v>50.68451682093157</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.99594349459473</v>
+        <v>22.99594349463271</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.59123268906503</v>
+        <v>26.59123268903172</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.07686030813388</v>
+        <v>33.07686030814298</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.44188783534403</v>
+        <v>36.44188783543316</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.42057040432726</v>
+        <v>12.42057040423108</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.82995367003812</v>
+        <v>27.82995367000242</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.27657176547111</v>
+        <v>34.27657176546293</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-2.833195190683092</v>
+        <v>-2.833195190679795</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.91865348738954</v>
+        <v>33.91865348735714</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.44203359320002</v>
+        <v>40.44203359319274</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>14.2257602730323</v>
+        <v>14.22576027310324</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.12487026312058</v>
+        <v>23.1248702631249</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.89295349145257</v>
+        <v>29.89295349145723</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.70786827858367</v>
+        <v>25.70786827857525</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.16175329314139</v>
+        <v>28.16175329323655</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.81766983080117</v>
+        <v>32.81766983083823</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.41416287882273</v>
+        <v>36.41416287882125</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.90001906461159</v>
+        <v>42.9000190646773</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.26531973875446</v>
+        <v>46.2653197389018</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.24272156262432</v>
+        <v>22.2427215626557</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.65271198014172</v>
+        <v>37.65271198022199</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>44.09984030572459</v>
+        <v>44.09984030573414</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-11.11630939553377</v>
+        <v>-11.11630939554514</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.63085525480871</v>
+        <v>25.6308552547961</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.15197466015515</v>
+        <v>32.1519746601273</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>5.943224076411205</v>
+        <v>5.94322407650386</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.83856074496284</v>
+        <v>14.83856074496978</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.60483547369781</v>
+        <v>21.60483547366496</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.42127408696617</v>
+        <v>17.42127408700619</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.87215636426802</v>
+        <v>19.87215636423209</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.5266680929458</v>
+        <v>24.52666809294922</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.12158749840605</v>
+        <v>28.12158749836922</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.60556938194511</v>
+        <v>34.60556938200332</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.96978375545736</v>
+        <v>37.96978375534095</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.95261892886915</v>
+        <v>13.95261892887176</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.35849793814398</v>
+        <v>29.35849793814011</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.803648230459</v>
+        <v>35.80364823046252</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-7.673516477385057</v>
+        <v>-7.6735164773796</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.07806162075499</v>
+        <v>29.07806162080615</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.60082621429139</v>
+        <v>35.60082621424956</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.383934267596736</v>
+        <v>9.383934267552739</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.28257830220596</v>
+        <v>18.28257830224211</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.05017680336439</v>
+        <v>25.05017680335006</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.86530195068169</v>
+        <v>20.86530195073353</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.31865548453495</v>
+        <v>23.31865548447674</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-4.728238754831501</v>
+        <v>-4.728238754848327</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.01943788271901</v>
+        <v>32.01943788274061</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.54054507234073</v>
+        <v>38.54054507237051</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>12.33214591246112</v>
+        <v>12.33214591250103</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.22777785403857</v>
+        <v>21.22777785404551</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.99402889621651</v>
+        <v>27.99402889624835</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>23.81048676982098</v>
+        <v>23.81048676983007</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.2615940417036</v>
+        <v>26.26159404170269</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.91608103308979</v>
+        <v>30.91608103307114</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.51121937106088</v>
+        <v>34.51121937108964</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.99530664721831</v>
+        <v>40.9953066472473</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.35952885917916</v>
+        <v>44.35952885917552</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>20.34192698746474</v>
+        <v>20.34192698750555</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.74816707098253</v>
+        <v>35.74816707092386</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.19329460796089</v>
+        <v>42.19329460795918</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-1.284300177976299</v>
+        <v>-1.284300177988122</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.46778995903596</v>
+        <v>35.46778995902425</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.99054235115104</v>
+        <v>41.99054235109261</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>15.77400186619629</v>
+        <v>15.77400186631612</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.67294121495561</v>
+        <v>24.67294121497266</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.44051603660787</v>
+        <v>31.44051603664436</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.70923900968548</v>
+        <v>29.70923900968526</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1.466518585994073</v>
+        <v>-1.466518585994528</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.28119561209851</v>
+        <v>35.28119561207463</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.80230272863084</v>
+        <v>41.80230272867461</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.59419626234264</v>
+        <v>15.59419626228421</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.48992343245552</v>
+        <v>24.4899234324844</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.25616438637237</v>
+        <v>31.25616438627005</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.07259289134506</v>
+        <v>27.07259289142532</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.5237958044652</v>
+        <v>29.52379580442814</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.17828015564489</v>
+        <v>34.17828015564023</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.77341549562245</v>
+        <v>37.77341549563064</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.25751379507667</v>
+        <v>44.25751379506826</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.62174056676852</v>
+        <v>47.6217405668332</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.60404168887614</v>
+        <v>23.60404168890525</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.01036954764461</v>
+        <v>39.0103695476437</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.45549302663564</v>
+        <v>45.45549302672205</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.977945923288097</v>
+        <v>1.977945923317655</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.73007362094361</v>
+        <v>38.73007362099715</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>45.25282593906061</v>
+        <v>45.25282593908994</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.03657819854609</v>
+        <v>19.03657819861908</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.9356127793558</v>
+        <v>27.93561277939968</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.70317750900588</v>
+        <v>34.70317750894085</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.51829255909458</v>
+        <v>30.51829255909276</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.97196676553883</v>
+        <v>32.97196676551837</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-8.04863820146975</v>
+        <v>-8.048638201441101</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.69877557035945</v>
+        <v>28.69877557035229</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.21996817311506</v>
+        <v>35.219968173093</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>9.011374691462855</v>
+        <v>9.011374691535615</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>17.90690165664093</v>
+        <v>17.90690165674234</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.67323394243467</v>
+        <v>24.67323394252926</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.48952129921772</v>
+        <v>20.48952129931777</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.94055748282792</v>
+        <v>22.94055748279143</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.59512148228898</v>
+        <v>27.59512148229455</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.19001650524083</v>
+        <v>31.1900165052863</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.67404737971187</v>
+        <v>37.67404737971801</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.03830515103041</v>
+        <v>41.03830515106406</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>17.02085345790933</v>
+        <v>17.0208534579597</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.42694376753209</v>
+        <v>32.42694376747377</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.87216139159207</v>
+        <v>38.87216139161389</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-4.605251683032044</v>
+        <v>-4.605251683070584</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.14657555599913</v>
+        <v>32.14657555602891</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.66941336038885</v>
+        <v>38.66941336036316</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>12.45267852775546</v>
+        <v>12.45267852792463</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>21.35151288116005</v>
+        <v>21.35151288116551</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.11916894433809</v>
+        <v>28.11916894442722</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.93414283159168</v>
+        <v>23.93414283174459</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.38765028989976</v>
+        <v>26.38765028996161</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.97414492637588</v>
+        <v>27.9741449263686</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.56945022299387</v>
+        <v>31.56945022306959</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>38.0551454116742</v>
+        <v>38.05514541172581</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.42011211663853</v>
+        <v>41.42011211668196</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.39869956440375</v>
+        <v>17.39869956438965</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>32.80819842341648</v>
+        <v>32.8081984233502</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>39.25476774397318</v>
+        <v>39.25476774394385</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>2.143181141202966</v>
+        <v>2.143181141305284</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.89496035199104</v>
+        <v>38.89496035203594</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>45.41825774724511</v>
+        <v>45.41825774733788</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.20220302566522</v>
+        <v>19.20220302569739</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.10146632495141</v>
+        <v>28.10146632498358</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.86951898659733</v>
+        <v>34.86951898643715</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.68443366012163</v>
+        <v>30.68443366007582</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.13849682359503</v>
+        <v>33.13849682360742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.79438907974181</v>
+        <v>37.79438907968201</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>41.39089823708698</v>
+        <v>41.39089823718145</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.87682198289715</v>
+        <v>47.87682198285531</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.24206183700212</v>
+        <v>51.2420618370418</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.21936859533516</v>
+        <v>27.21936859537654</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.629474566102</v>
+        <v>42.62947456612917</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>49.07655412831254</v>
+        <v>49.07655412830515</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.36470371963221</v>
+        <v>34.36470371962482</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.96022794167643</v>
+        <v>37.96022794166563</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.44602853569656</v>
+        <v>44.44602853573954</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.81100308357932</v>
+        <v>47.81100308359353</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.78915344069596</v>
+        <v>23.78915344077611</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>39.19901341801485</v>
+        <v>39.19901341811262</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.64555999267488</v>
+        <v>45.64555999272934</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>8.532846048773557</v>
+        <v>8.532846048781742</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.28513729679505</v>
+        <v>45.28513729672991</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>51.80842248442982</v>
+        <v>51.8084224844737</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.59271927214515</v>
+        <v>25.59271927216698</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.49227788491694</v>
+        <v>34.49227788492421</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.26030686089259</v>
+        <v>41.26030686088531</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.07524081180807</v>
+        <v>37.07524081180477</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.52952900127152</v>
+        <v>39.52952900127129</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.18539652173288</v>
+        <v>44.1853965216633</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>47.78212460458294</v>
+        <v>47.78212460450973</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.26815375514732</v>
+        <v>54.26815375515459</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>57.63340144836823</v>
+        <v>57.63340144842632</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.61027111747298</v>
+        <v>33.61027111747935</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>49.0207382057712</v>
+        <v>49.0207382056989</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.46779501609389</v>
+        <v>55.46779501604262</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.62742883253477</v>
+        <v>37.62742883254398</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.22295003451156</v>
+        <v>41.22295003450451</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.70876164910535</v>
+        <v>47.70876164909807</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>51.0737407554649</v>
+        <v>51.07374075544273</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.05179410879011</v>
+        <v>27.05179410884048</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.46174186480041</v>
+        <v>42.46174186482281</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>11.79529945463801</v>
+        <v>11.79529945469098</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>48.54762826473679</v>
+        <v>48.54762826470041</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.0709133708764</v>
+        <v>55.07091337091995</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.8555029173913</v>
+        <v>28.85550291742779</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.75515676196371</v>
+        <v>37.75515676197099</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.5231756406064</v>
+        <v>44.52317564056627</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>40.33808023811789</v>
+        <v>40.3380802380814</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.79246407232747</v>
+        <v>42.79246407223277</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.44832894552362</v>
+        <v>47.44832894550247</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>51.04505400252199</v>
+        <v>51.04505400251391</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>57.53109417322676</v>
+        <v>57.53109417324108</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.89634642204967</v>
+        <v>60.8963464221114</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.87311908832978</v>
+        <v>36.87311908835513</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>52.28367395498051</v>
+        <v>52.28367395495834</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>58.73072669863043</v>
+        <v>58.73072669857904</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.04319200688953</v>
+        <v>31.04319200697332</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.63847289051412</v>
+        <v>34.63847289055516</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.1242170746257</v>
+        <v>41.12421707464707</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.48922718068425</v>
+        <v>44.48922718078918</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.46752774863548</v>
+        <v>20.46752774871859</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.87723792899808</v>
+        <v>35.87723792901672</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.32387458942551</v>
+        <v>42.32387458946155</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>5.211849246546443</v>
+        <v>5.211849246592031</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.96387760301231</v>
+        <v>41.96387760298548</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.48724820156954</v>
+        <v>48.48724820158363</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.27135061834215</v>
+        <v>22.271350618429</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.17080424050791</v>
+        <v>31.17080424057431</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>37.93891446007583</v>
+        <v>37.9389144601445</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.75367788379597</v>
+        <v>33.7536778837996</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.20789497551632</v>
+        <v>36.20789497548358</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.86383950421193</v>
+        <v>40.8638395042225</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.46032424739919</v>
+        <v>44.46032424739101</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.94629698971462</v>
+        <v>50.94629698981364</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.31158024286346</v>
+        <v>54.31158024289666</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.28860011060058</v>
+        <v>30.28860011070324</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>45.69891740780408</v>
+        <v>45.69891740775679</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.14606430482277</v>
+        <v>52.14606430481958</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-13.82236186457553</v>
+        <v>-13.82236186465455</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.92297150910374</v>
+        <v>22.92297150912295</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.44343748439999</v>
+        <v>29.4434374844084</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>3.235965974245595</v>
+        <v>3.235965974345753</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>12.13070168317588</v>
+        <v>12.13070168315337</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.89637644438599</v>
+        <v>18.89637644442714</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.71345075372542</v>
+        <v>14.71345075374133</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>17.16411806958833</v>
+        <v>17.16411806952444</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>21.81817380777434</v>
+        <v>21.81817380777365</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.41286826090791</v>
+        <v>25.41286826083878</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.89646345932729</v>
+        <v>31.89646345931967</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.26035184261402</v>
+        <v>35.26035184262437</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>11.24468207556404</v>
+        <v>11.24468207555358</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.64969901108295</v>
+        <v>26.64969901104646</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.09423129690199</v>
+        <v>33.09423129695985</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-10.37655115888558</v>
+        <v>-10.37655115891446</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.37319559346465</v>
+        <v>26.37319559350842</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>32.89530656519653</v>
+        <v>32.89530656517504</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.679694218376333</v>
+        <v>6.679694218419876</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.57773721994831</v>
+        <v>15.57773721993376</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.34473561651784</v>
+        <v>22.34473561648999</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>18.16049666935796</v>
+        <v>18.16049666938741</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>20.61363519382851</v>
+        <v>20.61363519381282</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-7.434788226950765</v>
+        <v>-7.434788226983507</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.31105710731801</v>
+        <v>29.31105710733564</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.8315108653584</v>
+        <v>35.83151086544685</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>9.624390756879642</v>
+        <v>9.624390756918523</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>18.51942172140266</v>
+        <v>18.51942172136571</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.28507279725024</v>
+        <v>25.28507279725275</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>21.1021663605467</v>
+        <v>21.10216636054533</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.55305865785115</v>
+        <v>23.55305865777543</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.20708965947076</v>
+        <v>28.20708965946246</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.80200303521271</v>
+        <v>31.80200303510392</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>38.28570362049495</v>
+        <v>38.28570362052417</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.64959984164854</v>
+        <v>41.64959984164025</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>17.63349305701708</v>
+        <v>17.63349305695115</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.03887104657488</v>
+        <v>33.03887104662569</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.48338057735796</v>
+        <v>39.48338057731385</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-3.987831889097698</v>
+        <v>-3.987831889125211</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>32.76242687525725</v>
+        <v>32.76242687521349</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>39.28452564383738</v>
+        <v>39.28452564393003</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.06926473643752</v>
+        <v>13.06926473653575</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>21.96760303512954</v>
+        <v>21.96760303511783</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.73457775246097</v>
+        <v>28.73457775244574</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>24.55035806339745</v>
+        <v>24.55035806343405</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>27.0037216020585</v>
+        <v>27.00372160210477</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-4.173294559819603</v>
+        <v>-4.173294559801867</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>32.5725883325829</v>
+        <v>32.57258833263452</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>39.09304201757018</v>
+        <v>39.09304201762884</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>12.88621458815125</v>
+        <v>12.88621458814125</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>21.78134077577524</v>
+        <v>21.78134077579207</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.54698176366448</v>
+        <v>28.54698176363106</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.36404595656418</v>
+        <v>24.36404595651654</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.81503388970238</v>
+        <v>26.81503388968385</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.46906225134196</v>
+        <v>31.46906225133059</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.0639726303689</v>
+        <v>35.06397263030001</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.54768423827934</v>
+        <v>41.54768423823216</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>44.91158501897885</v>
+        <v>44.9115850190258</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>20.89538123367665</v>
+        <v>20.89538123372326</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.3008469939522</v>
+        <v>36.30084699385932</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.7453524668829</v>
+        <v>42.74535246687869</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-0.7258123207856002</v>
+        <v>-0.7258123207687746</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.02448400227822</v>
+        <v>36.02448400220364</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.54658269657332</v>
+        <v>42.54658269658434</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>16.33161451830826</v>
+        <v>16.33161451832031</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.23004804432357</v>
+        <v>25.23004804435995</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.99701267021751</v>
+        <v>31.99701267026776</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.81276361728171</v>
+        <v>27.81276361727841</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.26622279658525</v>
+        <v>30.26622279655626</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-10.75497833419147</v>
+        <v>-10.75497833416282</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.99060414603482</v>
+        <v>25.99060414611304</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>32.51114331374631</v>
+        <v>32.51114331384897</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>6.303828897401353</v>
+        <v>6.303828897430456</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>15.19875489151664</v>
+        <v>15.19875489153471</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>21.96448720588014</v>
+        <v>21.96448720588196</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.78141026401331</v>
+        <v>17.78141026401649</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>20.23223147657168</v>
+        <v>20.23223147651324</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>24.88633948213558</v>
+        <v>24.88633948206975</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.48100955930229</v>
+        <v>28.48100955924021</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.96465374499123</v>
+        <v>34.96465374490369</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.32858552301152</v>
+        <v>38.32858552302391</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>14.31262890753398</v>
+        <v>14.31262890755308</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.71785712998169</v>
+        <v>29.71785713002841</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.16245674346376</v>
+        <v>36.16245674345921</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-7.308574050016865</v>
+        <v>-7.308574050005952</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.44142182874705</v>
+        <v>29.44142182871794</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>35.96360600601454</v>
+        <v>35.96360600602215</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>9.748150763855641</v>
+        <v>9.748150763866896</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>18.64638407340137</v>
+        <v>18.64638407340774</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.41344002775579</v>
+        <v>25.41344002766518</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>21.22904982526702</v>
+        <v>21.2290498252361</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>23.68234226512507</v>
+        <v>23.68234226520953</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>25.26866853453443</v>
+        <v>25.26866853454433</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>28.8637488384833</v>
+        <v>28.86374883849216</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>35.34905729176435</v>
+        <v>35.34905729186041</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>38.71369792659291</v>
+        <v>38.71369792667078</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>14.6937805711407</v>
+        <v>14.69378057115855</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>30.1024172891912</v>
+        <v>30.10241728923531</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>36.54836844517799</v>
+        <v>36.54836844515605</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-0.5591416198292123</v>
+        <v>-0.5591416197964705</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>36.19080628958684</v>
+        <v>36.1908062896596</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>42.7134500359082</v>
+        <v>42.71345003587603</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>16.49867477897967</v>
+        <v>16.49867477900548</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>25.39733706083066</v>
+        <v>25.39733706075608</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>32.16478960959196</v>
+        <v>32.16478960957206</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>27.98034022141828</v>
+        <v>27.98034022150355</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>30.43418838095956</v>
+        <v>30.43418838095831</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>35.08962453053541</v>
+        <v>35.08962453060703</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>38.68590857692825</v>
+        <v>38.68590857680842</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>45.17144559180499</v>
+        <v>45.17144559182318</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>48.53635937327217</v>
+        <v>48.53635937322795</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.51516132945496</v>
+        <v>24.51516132945883</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>39.92440518025617</v>
+        <v>39.9244051803254</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>46.37086656459885</v>
+        <v>46.37086656466035</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>31.65873021144957</v>
+        <v>31.65873021153779</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>35.2540294311033</v>
+        <v>35.25402943114388</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>41.73944328396774</v>
+        <v>41.73944328402958</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.10409176119528</v>
+        <v>45.10409176128965</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>21.08373734137219</v>
+        <v>21.08373734132126</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>36.49273515802476</v>
+        <v>36.49273515802113</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>42.93866356810533</v>
+        <v>42.93866356808328</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>5.830026245486145</v>
+        <v>5.830026245624502</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>22.88869393140364</v>
+        <v>22.88869393146583</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>31.78765150957988</v>
+        <v>31.78765150953259</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>38.55508037304289</v>
+        <v>38.55508037312281</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>34.37065025627432</v>
+        <v>34.37065025630366</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>36.8247234292269</v>
+        <v>36.82472342922167</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>41.48013484361925</v>
+        <v>41.48013484361504</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>45.07663780472151</v>
+        <v>45.07663780464409</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>51.56228021878101</v>
+        <v>51.5622802187768</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>54.92720183905785</v>
+        <v>54.92720183905023</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.90556673211406</v>
+        <v>30.9055667321061</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>46.31517168063808</v>
+        <v>46.31517168062796</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>52.76161031291499</v>
+        <v>52.76161031295842</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>34.92122876320391</v>
+        <v>34.92122876328008</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>38.51652496414228</v>
+        <v>38.516524964208</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>45.00194983716906</v>
+        <v>45.00194983716042</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>48.36660287272186</v>
+        <v>48.36660287269185</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>24.34615145492821</v>
+        <v>24.34615145493401</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>39.75523704558318</v>
+        <v>39.75523704557227</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>46.20116139496715</v>
+        <v>46.20116139498182</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>9.092253110931459</v>
+        <v>9.092253110927821</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>45.84275059041752</v>
+        <v>45.8427505903983</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>52.36538204584374</v>
+        <v>52.36538204591934</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>26.1512510194997</v>
+        <v>26.15125101949629</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.05030382415659</v>
+        <v>35.0503038242023</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>41.8177225909948</v>
+        <v>41.81772259096046</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>37.63326311844585</v>
+        <v>37.63326311842459</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.08743193042326</v>
+        <v>40.08743193042155</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>44.7428406980745</v>
+        <v>44.74284069799332</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>48.33934063499989</v>
+        <v>48.33934063495624</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>54.82499406869422</v>
+        <v>54.82499406869331</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>58.18992024451634</v>
+        <v>58.18992024444631</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>34.16818814061812</v>
+        <v>34.16818814061846</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>49.57788086293774</v>
+        <v>49.57788086291603</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>56.02431542867591</v>
+        <v>56.02431542872309</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>28.33742787775659</v>
+        <v>28.33742787781184</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>31.93248377534191</v>
+        <v>31.93248377544389</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>38.41784122033734</v>
+        <v>38.41784122039032</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>41.78252525377334</v>
+        <v>41.78252525374423</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.76232103529335</v>
+        <v>17.76232103530062</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>33.17116906236631</v>
+        <v>33.17116906240269</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>39.61718755355971</v>
+        <v>39.61718755349764</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>2.509238793947496</v>
+        <v>2.509238793948064</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>39.25943583404969</v>
+        <v>39.25943583404241</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>45.78215277814129</v>
+        <v>45.78215277814959</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>19.56753465031343</v>
+        <v>19.56753465034446</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>28.46638724412323</v>
+        <v>28.46638724412346</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>35.23389734678326</v>
+        <v>35.23389734677189</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>31.04929671393031</v>
+        <v>31.0492967138721</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>33.50329879250128</v>
+        <v>33.50329879250105</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>38.15878721117249</v>
+        <v>38.15878721120841</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>41.75504684891771</v>
+        <v>41.75504684892157</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>48.24063285709976</v>
+        <v>48.240632857032</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>51.60559003488563</v>
+        <v>51.60559003489063</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>27.58410511743457</v>
+        <v>27.58410511738818</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>42.99356028225102</v>
+        <v>42.99356028222532</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>49.44008899643384</v>
+        <v>49.44008899643065</v>
       </c>
     </row>
   </sheetData>
